--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_8_5.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_8_5.xlsx
@@ -478,249 +478,249 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_24</t>
+          <t>model_8_5_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1063965516285306</v>
+        <v>-0.3429419163213907</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.6459334739223905</v>
+        <v>-0.5818750137294237</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.5592636939478319</v>
+        <v>-3.408068147388144</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.6034557588531921</v>
+        <v>-0.8700733678094812</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9889556765556335</v>
+        <v>1.486240983009338</v>
       </c>
       <c r="G2" t="n">
-        <v>3.931724548339844</v>
+        <v>2.753446817398071</v>
       </c>
       <c r="H2" t="n">
-        <v>2.324742794036865</v>
+        <v>2.644283056259155</v>
       </c>
       <c r="I2" t="n">
-        <v>3.175502777099609</v>
+        <v>2.702074766159058</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_23</t>
+          <t>model_8_5_0</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1328184563399631</v>
+        <v>-0.2625370420336641</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.6221891995903215</v>
+        <v>-0.5327941198249013</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.464585608227333</v>
+        <v>0.5820204672620912</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.5547529443488306</v>
+        <v>-0.05921902786580735</v>
       </c>
       <c r="F3" t="n">
-        <v>0.959714412689209</v>
+        <v>1.39725649356842</v>
       </c>
       <c r="G3" t="n">
-        <v>3.875005483627319</v>
+        <v>2.668015480041504</v>
       </c>
       <c r="H3" t="n">
-        <v>2.183584928512573</v>
+        <v>0.250734806060791</v>
       </c>
       <c r="I3" t="n">
-        <v>3.07905101776123</v>
+        <v>1.530468940734863</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_22</t>
+          <t>model_8_5_23</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1804854505009431</v>
+        <v>0.006374449395167958</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4718870285692627</v>
+        <v>-0.2683955663146094</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.487506133506163</v>
+        <v>-7.66661357337847</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.4668898027895334</v>
+        <v>-1.502148818603772</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9069610834121704</v>
+        <v>1.099650621414185</v>
       </c>
       <c r="G4" t="n">
-        <v>3.515971183776855</v>
+        <v>2.207797288894653</v>
       </c>
       <c r="H4" t="n">
-        <v>2.217757701873779</v>
+        <v>5.198871612548828</v>
       </c>
       <c r="I4" t="n">
-        <v>2.905045986175537</v>
+        <v>3.615362644195557</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_21</t>
+          <t>model_8_5_24</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1889566464071061</v>
+        <v>0.006374449395167958</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4720942803674275</v>
+        <v>-0.2683955663146094</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.443038242998425</v>
+        <v>-7.66661357337847</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.4512645656852072</v>
+        <v>-1.502148818603772</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8975859880447388</v>
+        <v>1.099650621414185</v>
       </c>
       <c r="G5" t="n">
-        <v>3.51646614074707</v>
+        <v>2.207797288894653</v>
       </c>
       <c r="H5" t="n">
-        <v>2.151459455490112</v>
+        <v>5.198871612548828</v>
       </c>
       <c r="I5" t="n">
-        <v>2.874101638793945</v>
+        <v>3.615362644195557</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_20</t>
+          <t>model_8_5_22</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2381644603071028</v>
+        <v>0.006446057720937981</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.3580963428007247</v>
+        <v>-0.268227880060512</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.3925667376754853</v>
+        <v>-7.66623869028111</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.3605897243116285</v>
+        <v>-1.501967933355769</v>
       </c>
       <c r="F6" t="n">
-        <v>0.843127429485321</v>
+        <v>1.099571466445923</v>
       </c>
       <c r="G6" t="n">
-        <v>3.244153499603271</v>
+        <v>2.207505464553833</v>
       </c>
       <c r="H6" t="n">
-        <v>2.076210260391235</v>
+        <v>5.198646545410156</v>
       </c>
       <c r="I6" t="n">
-        <v>2.694527864456177</v>
+        <v>3.615101099014282</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_19</t>
+          <t>model_8_5_21</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2412938269590157</v>
+        <v>0.006600025086089478</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.35539640249694</v>
+        <v>-0.2677690778935686</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.3811177207403804</v>
+        <v>-7.665752528365839</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.354818107393605</v>
+        <v>-1.501579700366195</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8396642804145813</v>
+        <v>1.099401116371155</v>
       </c>
       <c r="G7" t="n">
-        <v>3.237704038619995</v>
+        <v>2.206707000732422</v>
       </c>
       <c r="H7" t="n">
-        <v>2.059140682220459</v>
+        <v>5.198354721069336</v>
       </c>
       <c r="I7" t="n">
-        <v>2.683097839355469</v>
+        <v>3.614540338516235</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_18</t>
+          <t>model_8_5_20</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.263426710576937</v>
+        <v>0.006616558521031157</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2896643506196723</v>
+        <v>-0.2677182285714299</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.3843022425770821</v>
+        <v>-7.665702819788175</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.3139710361068664</v>
+        <v>-1.5015380824206</v>
       </c>
       <c r="F8" t="n">
-        <v>0.815169632434845</v>
+        <v>1.099382758140564</v>
       </c>
       <c r="G8" t="n">
-        <v>3.080686569213867</v>
+        <v>2.206618309020996</v>
       </c>
       <c r="H8" t="n">
-        <v>2.063888549804688</v>
+        <v>5.198325157165527</v>
       </c>
       <c r="I8" t="n">
-        <v>2.602203845977783</v>
+        <v>3.614480018615723</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_17</t>
+          <t>model_8_5_19</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2771633617489653</v>
+        <v>0.008583161262560646</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.2815490666062856</v>
+        <v>-0.266287818233176</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3275423367267842</v>
+        <v>-7.644961749514746</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.2886774392557601</v>
+        <v>-1.496574112965016</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7999671697616577</v>
+        <v>1.097206234931946</v>
       </c>
       <c r="G9" t="n">
-        <v>3.061301231384277</v>
+        <v>2.204128742218018</v>
       </c>
       <c r="H9" t="n">
-        <v>1.97926390171051</v>
+        <v>5.185883045196533</v>
       </c>
       <c r="I9" t="n">
-        <v>2.552111864089966</v>
+        <v>3.60730767250061</v>
       </c>
     </row>
     <row r="10">
@@ -730,245 +730,245 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2815272495949159</v>
+        <v>0.00862164769252538</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.2922774252955707</v>
+        <v>-0.2838330103810749</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.2854308614631937</v>
+        <v>-7.587054161406236</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2806125144370322</v>
+        <v>-1.496449929488521</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7951377034187317</v>
+        <v>1.097163796424866</v>
       </c>
       <c r="G10" t="n">
-        <v>3.086928367614746</v>
+        <v>2.234668016433716</v>
       </c>
       <c r="H10" t="n">
-        <v>1.916478872299194</v>
+        <v>5.151145458221436</v>
       </c>
       <c r="I10" t="n">
-        <v>2.536139965057373</v>
+        <v>3.607128381729126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_15</t>
+          <t>model_8_5_18</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3027488898438154</v>
+        <v>0.009236903337118019</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.2560251042530988</v>
+        <v>-0.2684865965809895</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.240336141333064</v>
+        <v>-7.629292529980599</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2414817331323087</v>
+        <v>-1.494915615077756</v>
       </c>
       <c r="F11" t="n">
-        <v>0.771651566028595</v>
+        <v>1.096482872962952</v>
       </c>
       <c r="G11" t="n">
-        <v>3.000330686569214</v>
+        <v>2.207955837249756</v>
       </c>
       <c r="H11" t="n">
-        <v>1.849246025085449</v>
+        <v>5.176483631134033</v>
       </c>
       <c r="I11" t="n">
-        <v>2.458645105361938</v>
+        <v>3.604911327362061</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_14</t>
+          <t>model_8_5_17</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3213800963006507</v>
+        <v>0.009852864636893499</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.2035943112718417</v>
+        <v>-0.2707457837493741</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.2378498138150058</v>
+        <v>-7.613963569361731</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.2071135682319087</v>
+        <v>-1.493360910248218</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7510322332382202</v>
+        <v>1.095801115036011</v>
       </c>
       <c r="G12" t="n">
-        <v>2.875086784362793</v>
+        <v>2.211888313293457</v>
       </c>
       <c r="H12" t="n">
-        <v>1.845539331436157</v>
+        <v>5.167287826538086</v>
       </c>
       <c r="I12" t="n">
-        <v>2.390581846237183</v>
+        <v>3.602664947509766</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_13</t>
+          <t>model_8_5_15</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3605573141590145</v>
+        <v>0.01580042088889533</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1461352716232673</v>
+        <v>-0.2841630586953812</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1374806017954633</v>
+        <v>-7.493086246831236</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1348704915991279</v>
+        <v>-1.478300673459445</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7076746225357056</v>
+        <v>1.089218854904175</v>
       </c>
       <c r="G13" t="n">
-        <v>2.737831592559814</v>
+        <v>2.235242605209351</v>
       </c>
       <c r="H13" t="n">
-        <v>1.695896506309509</v>
+        <v>5.094776630401611</v>
       </c>
       <c r="I13" t="n">
-        <v>2.24751091003418</v>
+        <v>3.580904006958008</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_12</t>
+          <t>model_8_5_13</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3675190857207676</v>
+        <v>0.01799467468403748</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.1369213768198589</v>
+        <v>-0.3455646204133853</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1178154203357993</v>
+        <v>-7.263025876403258</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.1220174344003098</v>
+        <v>-1.472513732045649</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6999699473381042</v>
+        <v>1.086790442466736</v>
       </c>
       <c r="G14" t="n">
-        <v>2.715821504592896</v>
+        <v>2.342119693756104</v>
       </c>
       <c r="H14" t="n">
-        <v>1.666577219963074</v>
+        <v>4.956769943237305</v>
       </c>
       <c r="I14" t="n">
-        <v>2.22205662727356</v>
+        <v>3.572542428970337</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_11</t>
+          <t>model_8_5_14</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3949420906016519</v>
+        <v>0.01889947362167255</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.05217141035259587</v>
+        <v>-0.3055622453746418</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1276787543122615</v>
+        <v>-7.382423476234868</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.07138385634138023</v>
+        <v>-1.470328759726607</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6696208119392395</v>
+        <v>1.085789084434509</v>
       </c>
       <c r="G15" t="n">
-        <v>2.513375282287598</v>
+        <v>2.272490501403809</v>
       </c>
       <c r="H15" t="n">
-        <v>1.681282639503479</v>
+        <v>5.028393268585205</v>
       </c>
       <c r="I15" t="n">
-        <v>2.121781349182129</v>
+        <v>3.569385766983032</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_10</t>
+          <t>model_8_5_12</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4056035913123299</v>
+        <v>0.02493503715897361</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.04436690180164393</v>
+        <v>-0.4248833315908391</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.08609769473319373</v>
+        <v>-6.906772082688796</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.05167147758104162</v>
+        <v>-1.453498088030779</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6578217148780823</v>
+        <v>1.0791095495224</v>
       </c>
       <c r="G16" t="n">
-        <v>2.49473237991333</v>
+        <v>2.480183601379395</v>
       </c>
       <c r="H16" t="n">
-        <v>1.619288444519043</v>
+        <v>4.743062496185303</v>
       </c>
       <c r="I16" t="n">
-        <v>2.082742691040039</v>
+        <v>3.545066833496094</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_9</t>
+          <t>model_8_5_7</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4195597234288928</v>
+        <v>0.07192435033853706</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0353623904788809</v>
+        <v>0.22007557707923</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.02956557610002442</v>
+        <v>-7.148915132649167</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.02590037558423575</v>
+        <v>-1.089474846131153</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6423763632774353</v>
+        <v>1.027106285095215</v>
       </c>
       <c r="G17" t="n">
-        <v>2.473222494125366</v>
+        <v>1.357553839683533</v>
       </c>
       <c r="H17" t="n">
-        <v>1.535003423690796</v>
+        <v>4.888318061828613</v>
       </c>
       <c r="I17" t="n">
-        <v>2.031705141067505</v>
+        <v>3.019088506698608</v>
       </c>
     </row>
     <row r="18">
@@ -978,59 +978,59 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.448497149965562</v>
+        <v>0.08870542090302036</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02838086645045534</v>
+        <v>-1.273536409629591</v>
       </c>
       <c r="D18" t="n">
-        <v>0.006580885232507661</v>
+        <v>-2.906810198756735</v>
       </c>
       <c r="E18" t="n">
-        <v>0.027610897255684</v>
+        <v>-1.213258733535874</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6103510856628418</v>
+        <v>1.008534669876099</v>
       </c>
       <c r="G18" t="n">
-        <v>2.320955991744995</v>
+        <v>3.957367897033691</v>
       </c>
       <c r="H18" t="n">
-        <v>1.481111884117126</v>
+        <v>2.343591690063477</v>
       </c>
       <c r="I18" t="n">
-        <v>1.92573070526123</v>
+        <v>3.197944164276123</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_7</t>
+          <t>model_8_5_11</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4760992228932435</v>
+        <v>0.1290143972237719</v>
       </c>
       <c r="C19" t="n">
-        <v>0.03735471599343099</v>
+        <v>-0.04663699373921926</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1341785503122744</v>
+        <v>-6.675924926984043</v>
       </c>
       <c r="E19" t="n">
-        <v>0.07854054283620004</v>
+        <v>-1.167166063312758</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5798038244247437</v>
+        <v>0.9639244079589844</v>
       </c>
       <c r="G19" t="n">
-        <v>2.299519538879395</v>
+        <v>1.821799635887146</v>
       </c>
       <c r="H19" t="n">
-        <v>1.290873527526855</v>
+        <v>4.604583740234375</v>
       </c>
       <c r="I19" t="n">
-        <v>1.824869155883789</v>
+        <v>3.13134503364563</v>
       </c>
     </row>
     <row r="20">
@@ -1040,214 +1040,214 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.50498303025056</v>
+        <v>0.1497690007007507</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07139576492703292</v>
+        <v>0.2483970604219117</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2235872501739503</v>
+        <v>-6.01112311479076</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1319592175935846</v>
+        <v>-0.8491210798624353</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5478379130363464</v>
+        <v>0.9409551620483398</v>
       </c>
       <c r="G20" t="n">
-        <v>2.218204021453857</v>
+        <v>1.30825662612915</v>
       </c>
       <c r="H20" t="n">
-        <v>1.157571911811829</v>
+        <v>4.20578670501709</v>
       </c>
       <c r="I20" t="n">
-        <v>1.719078063964844</v>
+        <v>2.67180061340332</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_5</t>
+          <t>model_8_5_2</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5308741089730629</v>
+        <v>0.1567435037229445</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06969749705716077</v>
+        <v>0.151144403821832</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3622712199740639</v>
+        <v>-3.220768026440485</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1800074157408666</v>
+        <v>-0.3659874385194644</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5191841125488281</v>
+        <v>0.9332365393638611</v>
       </c>
       <c r="G21" t="n">
-        <v>2.222260713577271</v>
+        <v>1.477536797523499</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9508047699928284</v>
+        <v>2.53192663192749</v>
       </c>
       <c r="I21" t="n">
-        <v>1.623922944068909</v>
+        <v>1.973719477653503</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_4</t>
+          <t>model_8_5_10</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5848217957288906</v>
+        <v>0.1666937932430046</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1231400351139136</v>
+        <v>-0.4665719639325643</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5494277634843926</v>
+        <v>-4.801711666323968</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2804331652692865</v>
+        <v>-1.068816758620074</v>
       </c>
       <c r="F22" t="n">
-        <v>0.459479957818985</v>
+        <v>0.9222244620323181</v>
       </c>
       <c r="G22" t="n">
-        <v>2.094599723815918</v>
+        <v>2.552747488021851</v>
       </c>
       <c r="H22" t="n">
-        <v>0.6717686653137207</v>
+        <v>3.480292797088623</v>
       </c>
       <c r="I22" t="n">
-        <v>1.425038576126099</v>
+        <v>2.989239692687988</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_2</t>
+          <t>model_8_5_5</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.6174355179747781</v>
+        <v>0.2129180315444903</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1012815769424008</v>
+        <v>0.2721359770476656</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7894293665589154</v>
+        <v>-5.022828561135464</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3515055428509692</v>
+        <v>-0.6408945933471351</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4233861565589905</v>
+        <v>0.8710677027702332</v>
       </c>
       <c r="G23" t="n">
-        <v>2.146814346313477</v>
+        <v>1.266936302185059</v>
       </c>
       <c r="H23" t="n">
-        <v>0.3139446675777435</v>
+        <v>3.612935066223145</v>
       </c>
       <c r="I23" t="n">
-        <v>1.284286022186279</v>
+        <v>2.370933532714844</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_3</t>
+          <t>model_8_5_9</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.6294590498027739</v>
+        <v>0.2163355637421781</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1256722169722815</v>
+        <v>-0.26922186295789</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7851726426177192</v>
+        <v>-4.783400621162458</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3655774645271821</v>
+        <v>-0.9393756321024347</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4100796282291412</v>
+        <v>0.8672856092453003</v>
       </c>
       <c r="G24" t="n">
-        <v>2.088551044464111</v>
+        <v>2.209235668182373</v>
       </c>
       <c r="H24" t="n">
-        <v>0.320291131734848</v>
+        <v>3.469308376312256</v>
       </c>
       <c r="I24" t="n">
-        <v>1.256417751312256</v>
+        <v>2.802209854125977</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_1</t>
+          <t>model_8_5_4</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.7145176170967176</v>
+        <v>0.2254744745163408</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3843418320650972</v>
+        <v>0.2846562770626626</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8751543892425596</v>
+        <v>-4.511488917473241</v>
       </c>
       <c r="E25" t="n">
-        <v>0.562627019231362</v>
+        <v>-0.53300824341172</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3159448802471161</v>
+        <v>0.8571715354919434</v>
       </c>
       <c r="G25" t="n">
-        <v>1.470653891563416</v>
+        <v>1.245143055915833</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1861352473497391</v>
+        <v>3.306195735931396</v>
       </c>
       <c r="I25" t="n">
-        <v>0.866178572177887</v>
+        <v>2.215048313140869</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_0</t>
+          <t>model_8_5_3</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.7376551565446052</v>
+        <v>0.2306290605062832</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6389039266557152</v>
+        <v>0.1017115171228792</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7825930086286559</v>
+        <v>-3.678599795336724</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6923926846360264</v>
+        <v>-0.4869612302651669</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2903384566307068</v>
+        <v>0.8514668345451355</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8625685572624207</v>
+        <v>1.563580870628357</v>
       </c>
       <c r="H26" t="n">
-        <v>0.3241371810436249</v>
+        <v>2.806567668914795</v>
       </c>
       <c r="I26" t="n">
-        <v>0.6091891527175903</v>
+        <v>2.148514986038208</v>
       </c>
     </row>
   </sheetData>
